--- a/test-document/Test scenario.xlsx
+++ b/test-document/Test scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tự học\Software testing\Automation-with-Playwright\test-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623082A7-F395-4434-A26F-49FBD92CC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D88EE-BF9C-45FD-B8CB-C36F90684A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E76FA5D2-AFA3-4733-BD9F-B0F4AA872562}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,25 +629,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,23 +1200,23 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="67.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="25.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
@@ -1218,10 +1224,10 @@
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -1229,10 +1235,10 @@
       <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
@@ -1240,10 +1246,10 @@
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
@@ -1251,10 +1257,10 @@
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
@@ -1262,11 +1268,11 @@
       <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="19">
         <f>DATE(2025, 4, 1)</f>
         <v>45748</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
@@ -1274,579 +1280,579 @@
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="16">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="16">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="16">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="16">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="16">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="16">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="16">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="16">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="16">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
